--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -5055,28 +5055,28 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>314791</v>
+        <v>314782</v>
       </c>
       <c r="C59">
         <v>59886</v>
       </c>
       <c r="D59">
-        <v>96947</v>
+        <v>97206</v>
       </c>
       <c r="E59">
-        <v>104318</v>
+        <v>105072</v>
       </c>
       <c r="F59">
-        <v>23595</v>
+        <v>23219</v>
       </c>
       <c r="G59">
-        <v>15444</v>
+        <v>15081</v>
       </c>
       <c r="H59">
-        <v>7912</v>
+        <v>7639</v>
       </c>
       <c r="I59">
-        <v>6689</v>
+        <v>6679</v>
       </c>
       <c r="J59">
         <v>67385</v>
@@ -5103,28 +5103,28 @@
         <v>1119</v>
       </c>
       <c r="R59">
-        <v>247406</v>
+        <v>247396</v>
       </c>
       <c r="S59">
         <v>45818</v>
       </c>
       <c r="T59">
-        <v>73685</v>
+        <v>73944</v>
       </c>
       <c r="U59">
-        <v>81813</v>
+        <v>82566</v>
       </c>
       <c r="V59">
-        <v>20561</v>
+        <v>20185</v>
       </c>
       <c r="W59">
-        <v>13397</v>
+        <v>13034</v>
       </c>
       <c r="X59">
-        <v>6561</v>
+        <v>6289</v>
       </c>
       <c r="Y59">
-        <v>5570</v>
+        <v>5560</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -5055,7 +5055,7 @@
         <v>68</v>
       </c>
       <c r="B59">
-        <v>314782</v>
+        <v>314826</v>
       </c>
       <c r="C59">
         <v>59886</v>
@@ -5064,19 +5064,19 @@
         <v>97206</v>
       </c>
       <c r="E59">
-        <v>105072</v>
+        <v>105302</v>
       </c>
       <c r="F59">
-        <v>23219</v>
+        <v>23281</v>
       </c>
       <c r="G59">
-        <v>15081</v>
+        <v>14946</v>
       </c>
       <c r="H59">
-        <v>7639</v>
+        <v>7630</v>
       </c>
       <c r="I59">
-        <v>6679</v>
+        <v>6576</v>
       </c>
       <c r="J59">
         <v>67385</v>
@@ -5103,7 +5103,7 @@
         <v>1119</v>
       </c>
       <c r="R59">
-        <v>247396</v>
+        <v>247441</v>
       </c>
       <c r="S59">
         <v>45818</v>
@@ -5112,19 +5112,19 @@
         <v>73944</v>
       </c>
       <c r="U59">
-        <v>82566</v>
+        <v>82797</v>
       </c>
       <c r="V59">
-        <v>20185</v>
+        <v>20247</v>
       </c>
       <c r="W59">
-        <v>13034</v>
+        <v>12899</v>
       </c>
       <c r="X59">
-        <v>6289</v>
+        <v>6280</v>
       </c>
       <c r="Y59">
-        <v>5560</v>
+        <v>5457</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/2/1/Derivados suscripciones por plazo original 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Serie</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5064,10 +5067,10 @@
         <v>97206</v>
       </c>
       <c r="E59">
-        <v>105302</v>
+        <v>105303</v>
       </c>
       <c r="F59">
-        <v>23281</v>
+        <v>23280</v>
       </c>
       <c r="G59">
         <v>14946</v>
@@ -5115,16 +5118,93 @@
         <v>82797</v>
       </c>
       <c r="V59">
-        <v>20247</v>
+        <v>20246</v>
       </c>
       <c r="W59">
-        <v>12899</v>
+        <v>12900</v>
       </c>
       <c r="X59">
         <v>6280</v>
       </c>
       <c r="Y59">
         <v>5457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>282587</v>
+      </c>
+      <c r="C60">
+        <v>50581</v>
+      </c>
+      <c r="D60">
+        <v>77753</v>
+      </c>
+      <c r="E60">
+        <v>95166</v>
+      </c>
+      <c r="F60">
+        <v>23648</v>
+      </c>
+      <c r="G60">
+        <v>17537</v>
+      </c>
+      <c r="H60">
+        <v>10479</v>
+      </c>
+      <c r="I60">
+        <v>7424</v>
+      </c>
+      <c r="J60">
+        <v>61762</v>
+      </c>
+      <c r="K60">
+        <v>11748</v>
+      </c>
+      <c r="L60">
+        <v>19196</v>
+      </c>
+      <c r="M60">
+        <v>20670</v>
+      </c>
+      <c r="N60">
+        <v>3877</v>
+      </c>
+      <c r="O60">
+        <v>2507</v>
+      </c>
+      <c r="P60">
+        <v>2885</v>
+      </c>
+      <c r="Q60">
+        <v>880</v>
+      </c>
+      <c r="R60">
+        <v>220826</v>
+      </c>
+      <c r="S60">
+        <v>38833</v>
+      </c>
+      <c r="T60">
+        <v>58557</v>
+      </c>
+      <c r="U60">
+        <v>74495</v>
+      </c>
+      <c r="V60">
+        <v>19772</v>
+      </c>
+      <c r="W60">
+        <v>15030</v>
+      </c>
+      <c r="X60">
+        <v>7594</v>
+      </c>
+      <c r="Y60">
+        <v>6545</v>
       </c>
     </row>
   </sheetData>
